--- a/data/AA-lubang.xlsx
+++ b/data/AA-lubang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\Report Planogram\Report-Planogram\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC98D1E7-5402-46D0-9F9A-E6A03D13BD5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA65142-A467-4E1E-829B-6963BDBD9948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A979EF21-3CF3-4FB1-BB4A-FF0B3859BCA5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>NOTCHES</t>
   </si>
@@ -102,12 +102,6 @@
   </si>
   <si>
     <t>HOLE</t>
-  </si>
-  <si>
-    <t>JENLOK</t>
-  </si>
-  <si>
-    <t>I</t>
   </si>
 </sst>
 </file>
@@ -479,245 +473,182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5493A5EE-7AE5-4030-B9F8-9F82D86CFB70}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="B2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="B3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="B4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="B5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="B6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="B7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="B8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="B9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10">
+      <c r="B10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11">
+      <c r="B11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C12">
+      <c r="B12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="C13">
+      <c r="B13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C14">
+      <c r="B14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C15">
+      <c r="B15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="C16">
+      <c r="B16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C17">
+      <c r="B17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C18">
+      <c r="B18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="C19">
+      <c r="B19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="C20">
+      <c r="B20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C21">
+      <c r="B21">
         <v>20</v>
       </c>
     </row>
